--- a/衍生品应用/期货套期保值分析/股票-股指期货套期保值/套保测算模板v1.xlsx
+++ b/衍生品应用/期货套期保值分析/股票-股指期货套期保值/套保测算模板v1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="28035" windowHeight="11895"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="计算表" sheetId="2" r:id="rId1"/>
@@ -13,216 +13,612 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+  <si>
+    <t>测算日期</t>
+  </si>
+  <si>
+    <t>股指期货代码</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>股指期货合约点数</t>
+  </si>
+  <si>
+    <t>套保手续费与滑点</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>1、股票价格以套保初始日为基准采用定点复权计算</t>
+  </si>
+  <si>
+    <t>2、墨绿色为Excel自动计算结果</t>
+  </si>
+  <si>
+    <t>3、墨蓝色为Python输出结果</t>
+  </si>
+  <si>
+    <t>测算序号</t>
+  </si>
+  <si>
+    <t>套保初始日期（复权价格基准日）</t>
+  </si>
   <si>
     <t>套保结束日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>股指期货合约代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论最优数量计算采样交易日数</t>
+  </si>
+  <si>
+    <t>理论最优数量计算采样初始日</t>
+  </si>
+  <si>
+    <t>理论最优数量计算采样结束日</t>
   </si>
   <si>
     <t>理论最优数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股指期货套保初始日贴水比例</t>
+  </si>
+  <si>
+    <t>股指期货套保结束日预期贴水比例</t>
+  </si>
+  <si>
+    <t>股指期货套保基差风险损失最大承受比例</t>
   </si>
   <si>
     <t>贴水修正比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人工修正比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修正后合约数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际使用合约数量</t>
+  </si>
+  <si>
+    <t>基准日股票市值</t>
+  </si>
+  <si>
+    <t>到期日股票市值</t>
   </si>
   <si>
     <t>投资组合盈亏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期货合约盈亏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套保总盈亏</t>
+  </si>
+  <si>
+    <t>套保盈亏比例</t>
+  </si>
+  <si>
+    <t>IC1903</t>
   </si>
   <si>
     <t>投资组合股票代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>股票数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测算日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股指期货代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套保总盈亏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测算序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>601888.SH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>601901.SH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>601360.SH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基准日股票市值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股指期货合约点数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套保盈亏比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论最优数量计算采样初始日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论最优数量计算采样结束日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套保初始日期（复权价格基准日）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套保手续费与滑点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期日股票市值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际使用合约数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、股票价格以套保初始日为基准采用定点复权计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、墨绿色为Excel自动计算结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股指期货套保结束日预期贴水比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股指期货套保初始日贴水比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股指期货套保基差风险损失最大承受比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、墨蓝色为Python输出结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC1903</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600426.SH</t>
+  </si>
+  <si>
+    <t>000977.SZ</t>
+  </si>
+  <si>
+    <t>002368.SZ</t>
+  </si>
+  <si>
+    <t>002236.SZ</t>
+  </si>
+  <si>
+    <t>600050.SH</t>
+  </si>
+  <si>
+    <t>300098.SZ</t>
+  </si>
+  <si>
+    <t>000768.SZ</t>
+  </si>
+  <si>
+    <t>300324.SZ</t>
+  </si>
+  <si>
+    <t>601318.SH</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>002202.SZ</t>
+  </si>
+  <si>
+    <t>600718.SH</t>
+  </si>
+  <si>
+    <t>000910.SZ</t>
+  </si>
+  <si>
+    <t>603008.SH</t>
+  </si>
+  <si>
+    <t>300433.SZ</t>
+  </si>
+  <si>
+    <t>000066.SZ</t>
+  </si>
+  <si>
+    <t>600867.SH</t>
+  </si>
+  <si>
+    <t>600028.SH</t>
+  </si>
+  <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
+    <t>159949.SZ</t>
+  </si>
+  <si>
+    <t>600570.SH</t>
+  </si>
+  <si>
+    <t>600016.SH</t>
+  </si>
+  <si>
+    <t>600580.SH</t>
+  </si>
+  <si>
+    <t>601328.SH</t>
+  </si>
+  <si>
+    <t>002065.SZ</t>
+  </si>
+  <si>
+    <t>600029.SH</t>
+  </si>
+  <si>
+    <t>300166.SZ</t>
+  </si>
+  <si>
+    <t>601600.SH</t>
+  </si>
+  <si>
+    <t>002396.SZ</t>
+  </si>
+  <si>
+    <t>000733.SZ</t>
+  </si>
+  <si>
+    <t>002024.SZ</t>
+  </si>
+  <si>
+    <t>300271.SZ</t>
+  </si>
+  <si>
+    <t>601211.SH</t>
+  </si>
+  <si>
+    <t>000069.SZ</t>
+  </si>
+  <si>
+    <t>601877.SH</t>
+  </si>
+  <si>
+    <t>002384.SZ</t>
+  </si>
+  <si>
+    <t>600059.SH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.0000%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="###,###,##0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000%"/>
+    <numFmt numFmtId="179" formatCode="###,###,##0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="6" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -230,76 +626,382 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -310,7 +1012,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -318,8 +1020,8 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <definedNames>
-      <definedName name="s_dq_settle"/>
       <definedName name="s_info_contractmultiplier"/>
+      <definedName name="TDaysOffset"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -611,346 +1313,659 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="10" width="9.625" style="14" customWidth="1"/>
-    <col min="11" max="12" width="9.125" style="14" customWidth="1"/>
-    <col min="13" max="14" width="9.625" customWidth="1"/>
-    <col min="15" max="16" width="15.125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="11" width="9.625" style="6" customWidth="1"/>
+    <col min="12" max="13" width="9.125" style="6" customWidth="1"/>
+    <col min="14" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="17" width="15.125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="7" customWidth="1"/>
+    <col min="19" max="19" width="13.875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="16.25" style="7" customWidth="1"/>
+    <col min="21" max="21" width="11.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
         <v>43605</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <f>[1]!s_info_contractmultiplier(CONCATENATE(C2, ".CFE"))</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="e">
+        <f>[1]!s_info_contractmultiplier(CONCATENATE(C2,".CFE"))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="65.25" customHeight="1" spans="1:21">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="K9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C6" s="6" t="s">
+      <c r="U9" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C7" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <v>43511</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>43538</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43326</v>
-      </c>
-      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10" s="16" t="e">
+        <f>[1]!TDaysOffset(G10,CONCATENATE("Offset=-",E10))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="9">
+        <f>B10</f>
         <v>43511</v>
       </c>
-      <c r="G10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="H10">
+        <v>1.13</v>
+      </c>
+      <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="14">
+      <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="14">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="K10" s="14">
-        <f>IF((H10-I10)=0,1,MAX(MIN(J10/(H10-I10),1),0))</f>
+      <c r="K10" s="6">
+        <v>0.033</v>
+      </c>
+      <c r="L10" s="6">
+        <f>IF((I10-J10)=0,1,MAX(MIN(K10/(I10-J10),1),0))</f>
         <v>1</v>
       </c>
-      <c r="L10" s="14">
+      <c r="M10" s="6">
         <v>1</v>
       </c>
-      <c r="M10">
-        <f>G10*K10*L10</f>
-        <v>1.1299999999999999</v>
-      </c>
       <c r="N10">
+        <f>H10*L10*M10</f>
+        <v>1.13</v>
+      </c>
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>1285881</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <v>1400719</v>
       </c>
-      <c r="Q10" s="7">
-        <f>P10-O10</f>
+      <c r="R10" s="7">
+        <f>Q10-P10</f>
         <v>114838</v>
       </c>
-      <c r="R10" s="7">
-        <f>([1]!s_dq_settle(CONCATENATE(D10,".CFE"),B10)-[1]!s_dq_settle(CONCATENATE(D10,".CFE"), C10))*N10*C3-ABS([1]!s_dq_settle(CONCATENATE(D10,".CFE"),B10)-[1]!s_dq_settle(CONCATENATE(D10,".CFE"), C10))*N10*C3*C4</f>
-        <v>-153760.00000000003</v>
-      </c>
-      <c r="S10" s="7">
-        <f>Q10+R10</f>
-        <v>-38922.000000000029</v>
-      </c>
-      <c r="T10" s="4">
-        <f>S10/O10</f>
-        <v>-3.0268741819810721E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S10" s="7" t="e">
+        <f>(s_dq_settle(CONCATENATE(D10,".CFE"),B10)-s_dq_settle(CONCATENATE(D10,".CFE"),C10))*O10*$C$3-ABS(s_dq_settle(CONCATENATE(D10,".CFE"),B10)-s_dq_settle(CONCATENATE(D10,".CFE"),C10))*O10*$C$3*$C$4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T10" s="7" t="e">
+        <f>R10+S10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U10" s="8" t="e">
+        <f>T10/P10</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>51100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>14900</v>
-      </c>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2720000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1985000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1200200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2390000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2573839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1830000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1369701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1290000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1390349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1250538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="3">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3">
+        <v>635000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3">
+        <v>148800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>